--- a/Healthcare/ISRG.xlsx
+++ b/Healthcare/ISRG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749653B-015B-9943-87E5-8399293006BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C710ED6-EEC4-DB41-ABC6-F21BBE91C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,8 +1942,10 @@
     <v>525</v>
     <v>269.49</v>
     <v>1.3802000000000001</v>
-    <v>0.38</v>
-    <v>7.3760000000000004E-4</v>
+    <v>8.73</v>
+    <v>1.6933E-2</v>
+    <v>0.72</v>
+    <v>1.3730000000000001E-3</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The da Vinci surgical system consists of a surgeon console or consoles, a patient-side cart, and a high-performance vision system. The da Vinci products fall into five categories, namely da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a comprehensive suite of systems, learning, and services offerings. The Ion endoluminal system consists of a system cart, a controller, a catheter, and a vision probe. It extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Both systems use software, instruments, and accessories.</v>
     <v>13676</v>
@@ -1951,24 +1953,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>525</v>
+    <v>524.82500000000005</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45602.933743703128</v>
+    <v>45604.039848668748</v>
     <v>0</v>
-    <v>506.8</v>
-    <v>183628289669</v>
+    <v>515.58000000000004</v>
+    <v>186737735832</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>523.13</v>
-    <v>82.872699999999995</v>
-    <v>515.16999999999996</v>
+    <v>516</v>
+    <v>84.275800000000004</v>
     <v>515.54999999999995</v>
+    <v>524.28</v>
+    <v>525</v>
     <v>356179400</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>252</v>
-    <v>1202223</v>
+    <v>1209283</v>
+    <v>1243642</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2000,6 +2003,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2020,6 +2025,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2036,7 +2042,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2047,13 +2053,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2119,13 +2128,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2170,6 +2185,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2177,6 +2195,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2877,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>515.54999999999995</v>
+        <v>524.28</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>22.558757944594596</v>
+        <v>22.940753787714989</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2924,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.3760000000000004E-4</v>
+        <v>1.6933E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>73.451315867600002</v>
+        <v>74.695094332799997</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2972,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>183628289669</v>
+        <v>186737735832</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>9.6662665823416104E-3</v>
+        <v>9.5053096370242597E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.67954469639042903</v>
+        <v>-0.68488072828276048</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Healthcare/ISRG.xlsx
+++ b/Healthcare/ISRG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C710ED6-EEC4-DB41-ABC6-F21BBE91C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C523C-C296-4749-88C3-1CEAF6BAADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1939,13 +1939,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>525</v>
-    <v>269.49</v>
-    <v>1.3802000000000001</v>
-    <v>8.73</v>
-    <v>1.6933E-2</v>
-    <v>0.72</v>
-    <v>1.3730000000000001E-3</v>
+    <v>544.38</v>
+    <v>304.5</v>
+    <v>1.3869</v>
+    <v>7.18</v>
+    <v>1.3505E-2</v>
+    <v>-0.02</v>
+    <v>-3.7119999999999997E-5</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The da Vinci surgical system consists of a surgeon console or consoles, a patient-side cart, and a high-performance vision system. The da Vinci products fall into five categories, namely da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a comprehensive suite of systems, learning, and services offerings. The Ion endoluminal system consists of a system cart, a controller, a catheter, and a vision probe. It extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Both systems use software, instruments, and accessories.</v>
     <v>13676</v>
@@ -1953,25 +1953,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>524.82500000000005</v>
+    <v>540.08000000000004</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45604.039848668748</v>
+    <v>45615.991864791409</v>
     <v>0</v>
-    <v>515.58000000000004</v>
-    <v>186737735832</v>
+    <v>526.01</v>
+    <v>191916584308</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>516</v>
-    <v>84.275800000000004</v>
-    <v>515.54999999999995</v>
-    <v>524.28</v>
-    <v>525</v>
+    <v>527.57000000000005</v>
+    <v>86.613100000000003</v>
+    <v>531.64</v>
+    <v>538.82000000000005</v>
+    <v>538.79999999999995</v>
     <v>356179400</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>1209283</v>
-    <v>1243642</v>
+    <v>1143225</v>
+    <v>1414819</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2898,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>524.28</v>
+        <v>538.82000000000005</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>22.940753787714989</v>
+        <v>23.576975959213758</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2945,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6933E-2</v>
+        <v>1.3505E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>74.695094332799997</v>
+        <v>76.766633723200002</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2993,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>186737735832</v>
+        <v>191916584308</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>9.5053096370242597E-3</v>
+        <v>9.2488098743533625E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3042,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3802000000000001</v>
+        <v>1.3869</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.68488072828276048</v>
+        <v>-0.69338418808523383</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
